--- a/biology/Botanique/Pallenis_spinosa/Pallenis_spinosa.xlsx
+++ b/biology/Botanique/Pallenis_spinosa/Pallenis_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Astérolide épineux, le Buphthalme épineux ou le Pallénis épineux (Pallenis spinosa), est une espèce de plante à fleurs de la famille des Asteraceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Buphthalmum spinosum L.
 Asteriscus spinosus (L.) Sch.Bip.
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est est une plante annuelle ou bisannuelle ne dépassant généralement pas les soixante-dix centimètres de haut[1]. Les tiges sont foncées, raides, droites et munies de poils espacés[1].
-Les feuilles sont alternes, velues et pointues[1]. Les fleurs, en capitule sur deux rangées, ressemblent un peu à celle de la marguerite et la floraison a lieu en juin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est est une plante annuelle ou bisannuelle ne dépassant généralement pas les soixante-dix centimètres de haut. Les tiges sont foncées, raides, droites et munies de poils espacés.
+Les feuilles sont alternes, velues et pointues. Les fleurs, en capitule sur deux rangées, ressemblent un peu à celle de la marguerite et la floraison a lieu en juin.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante se plaît sur les terrains incultes et pierreux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se plaît sur les terrains incultes et pierreux.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bassin méditerranéen
 </t>
@@ -638,7 +658,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Aquitaine.
 </t>
@@ -669,7 +691,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pallenis spinosa à Mezraya (Djerba).
